--- a/generated_output/temp/us-core-allergyintolerance.xlsx
+++ b/generated_output/temp/us-core-allergyintolerance.xlsx
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>AllergyIntolerance.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -210,7 +210,7 @@
     <t>AllergyIntolerance.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>AllergyIntolerance.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -261,7 +261,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -287,7 +287,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -313,7 +313,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -348,7 +348,7 @@
     <t>AllergyIntolerance.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -376,7 +376,7 @@
     <t>AllergyIntolerance.clinicalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -572,7 +572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -594,7 +594,7 @@
     <t>AllergyIntolerance.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -613,8 +613,8 @@
     <t>AllergyIntolerance.onset[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Age {[]} {[]}Period {[]} {[]}Range {[]} {[]}string {[]} {[]}</t>
+    <t>dateTime
+AgePeriodRangestring</t>
   </si>
   <si>
     <t>When allergy or intolerance was identified</t>
@@ -632,7 +632,7 @@
     <t>AllergyIntolerance.recordedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -658,7 +658,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -681,7 +681,7 @@
 Informant</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -721,7 +721,7 @@
     <t>AllergyIntolerance.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
     <t>AllergyIntolerance.reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
     <t>AllergyIntolerance.reaction.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -983,67 +983,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
